--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Sprint 1/Estado avance del proyecto.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Sprint 1/Estado avance del proyecto.xlsx
@@ -88,7 +88,7 @@
     <t>Sprint 2</t>
   </si>
   <si>
-    <t>No iniciado</t>
+    <t>OK</t>
   </si>
   <si>
     <t>Resumen de Estado</t>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -245,7 +245,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -666,7 +665,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>38.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="7">
@@ -674,7 +673,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>26.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="8">
@@ -692,7 +691,7 @@
       </c>
       <c r="B9" s="3">
         <f>B3*B4*B6</f>
-        <v>228</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10">
@@ -701,7 +700,7 @@
       </c>
       <c r="B10" s="3">
         <f>B3*B4*B7</f>
-        <v>156</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11">
@@ -718,7 +717,7 @@
       </c>
       <c r="B12" s="3">
         <f>B8+B9+B10</f>
-        <v>540</v>
+        <v>870</v>
       </c>
     </row>
     <row r="13">
@@ -727,16 +726,16 @@
       </c>
       <c r="B13" s="5">
         <f>B12*0.33</f>
-        <v>178.2</v>
+        <v>287.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="5">
         <f>B12*0.1</f>
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
@@ -797,18 +796,18 @@
         <v>21</v>
       </c>
       <c r="B22" s="9">
-        <v>228.0</v>
+        <v>270.0</v>
       </c>
       <c r="C22" s="4">
-        <v>224.0</v>
+        <v>270.0</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="2"/>
-        <v>98.24561404</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3" t="str">
         <f t="shared" si="3"/>
@@ -819,19 +818,19 @@
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
-        <v>168.0</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.0</v>
+      <c r="B23" s="4">
+        <v>444.0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>439.0</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="1"/>
-        <v>168</v>
-      </c>
-      <c r="E23" s="3">
+        <v>5</v>
+      </c>
+      <c r="E23" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>98.87387387</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>23</v>
@@ -869,47 +868,47 @@
         <v>28</v>
       </c>
       <c r="B32" s="3">
-        <f>156+224</f>
-        <v>380</v>
-      </c>
-      <c r="C32" s="11">
-        <f t="shared" ref="C32:C36" si="4">B32/540*100</f>
-        <v>70.37037037</v>
+        <f>156+270+439</f>
+        <v>865</v>
+      </c>
+      <c r="C32" s="5">
+        <f>(B32/B35)*100</f>
+        <v>99.42528736</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="3">
-        <v>168.0</v>
-      </c>
-      <c r="C33" s="11">
-        <f t="shared" si="4"/>
-        <v>31.11111111</v>
+      <c r="B33" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C33" s="5">
+        <f>(B33/B35)*100</f>
+        <v>0.5747126437</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="3">
-        <v>168.0</v>
-      </c>
-      <c r="C34" s="11">
-        <f t="shared" si="4"/>
-        <v>31.11111111</v>
+      <c r="B34" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C34" s="5">
+        <f>(B34/B35)*100</f>
+        <v>0.5747126437</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="3">
-        <v>540.0</v>
-      </c>
-      <c r="C35" s="3">
-        <f t="shared" si="4"/>
+      <c r="B35" s="4">
+        <v>870.0</v>
+      </c>
+      <c r="C35" s="5">
+        <f>(B35/B35)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -917,11 +916,11 @@
       <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="3">
-        <v>54.0</v>
-      </c>
-      <c r="C36" s="3">
-        <f t="shared" si="4"/>
+      <c r="B36" s="4">
+        <v>87.0</v>
+      </c>
+      <c r="C36" s="5">
+        <f>(B36/B35)*100</f>
         <v>10</v>
       </c>
     </row>
